--- a/biology/Botanique/Ibéris_de_Bernard/Ibéris_de_Bernard.xlsx
+++ b/biology/Botanique/Ibéris_de_Bernard/Ibéris_de_Bernard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ib%C3%A9ris_de_Bernard</t>
+          <t>Ibéris_de_Bernard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ibéris de Bernard
 Iberis bernardiana, de noms commun Ibéris de Bernard, est une espèce de plantes à fleurs annuelle ou bisannuelle, de la famille des Brassicaceae et du genre Iberis, endémique des Pyrénées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ib%C3%A9ris_de_Bernard</t>
+          <t>Ibéris_de_Bernard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-L'Ibéris de Bernard est une plante annuelle ou bisannuelle, ciliée ou pubescente ; les tiges de 5 à 20 cm, sont grêles, rameuses dans le haut ; les feuilles sont un peu épaisses, linéaires-oblongues, ordinairement dentées[2].
-Appareil reproducteur
-Les fleurs sont lilacées, assez petites ; les pétales sont obovales, atténués en long onglet ; la grappe fructifère est un peu allongée, en corymbe peu serré, à pédicelles étalés-dressés ; les silicules sont petites, ovales, rétrécies au sommet, à échancrure très aiguë, à lobes aigus, dressés ou à peine divergents, le style dépassant à peine les lobes[2].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Ibéris de Bernard est une plante annuelle ou bisannuelle, ciliée ou pubescente ; les tiges de 5 à 20 cm, sont grêles, rameuses dans le haut ; les feuilles sont un peu épaisses, linéaires-oblongues, ordinairement dentées.
 </t>
         </is>
       </c>
@@ -528,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ib%C3%A9ris_de_Bernard</t>
+          <t>Ibéris_de_Bernard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat, écologie et répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'Ibéris de Bernard est endémique des Pyrénées occidentales et centrales. Il s'y concentre sur les pelouses et éboulis[1].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont lilacées, assez petites ; les pétales sont obovales, atténués en long onglet ; la grappe fructifère est un peu allongée, en corymbe peu serré, à pédicelles étalés-dressés ; les silicules sont petites, ovales, rétrécies au sommet, à échancrure très aiguë, à lobes aigus, dressés ou à peine divergents, le style dépassant à peine les lobes.
 </t>
         </is>
       </c>
@@ -559,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ib%C3%A9ris_de_Bernard</t>
+          <t>Ibéris_de_Bernard</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,12 +595,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Menaces et conservation</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est inscrite sur la Liste rouge de la flore vasculaire de France métropolitaine (2019), la Liste rouge de la flore vasculaire d'Aquitaine (2018) et la Liste rouge de la flore vasculaire de Midi-Pyrénées[1],[2].
+          <t>Habitat, écologie et répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Ibéris de Bernard est endémique des Pyrénées occidentales et centrales. Il s'y concentre sur les pelouses et éboulis.
 </t>
         </is>
       </c>
@@ -590,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ib%C3%A9ris_de_Bernard</t>
+          <t>Ibéris_de_Bernard</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,12 +628,47 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Menaces et conservation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est inscrite sur la Liste rouge de la flore vasculaire de France métropolitaine (2019), la Liste rouge de la flore vasculaire d'Aquitaine (2018) et la Liste rouge de la flore vasculaire de Midi-Pyrénées,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ibéris_de_Bernard</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ib%C3%A9ris_de_Bernard</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon l'INPN      (29 mars 2021)[1], Iberis bernardiana a pour synonymes :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon l'INPN      (29 mars 2021), Iberis bernardiana a pour synonymes :
 Biauricularia benthamiana Bubani, 1901
 Biauricularia devillei Bubani, 1901
 Iberis benthamiana Boiss. &amp; Reut., 1852
